--- a/Tables/iv_reg_demand_pf_notchoosing.xlsx
+++ b/Tables/iv_reg_demand_pf_notchoosing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C93738-991D-4321-AB4D-584B20BCDEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27B3CFB-59C0-4AE3-85A1-C19F5C5FD65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8D8B75BE-A319-44D9-B827-2C4CDF107419}"/>
+    <workbookView xWindow="-28920" yWindow="-8820" windowWidth="29040" windowHeight="15720" xr2:uid="{8D8B75BE-A319-44D9-B827-2C4CDF107419}"/>
   </bookViews>
   <sheets>
     <sheet name="iv_reg_demand_pf_notchoosing" sheetId="1" r:id="rId1"/>
@@ -347,38 +347,38 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
+            <v>0.021</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v/>
+          </cell>
+          <cell r="D5" t="str">
+            <v/>
+          </cell>
+          <cell r="E5" t="str">
+            <v>0.011</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>0.00046</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>0.011</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v/>
+          </cell>
+          <cell r="I5" t="str">
+            <v/>
+          </cell>
+          <cell r="J5" t="str">
+            <v>0.0038</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>0.0064</v>
+          </cell>
+          <cell r="L5" t="str">
             <v>0.020</v>
           </cell>
-          <cell r="C5" t="str">
-            <v/>
-          </cell>
-          <cell r="D5" t="str">
-            <v/>
-          </cell>
-          <cell r="E5" t="str">
-            <v>0.0097</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>0.00035</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>0.0100</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v/>
-          </cell>
-          <cell r="I5" t="str">
-            <v/>
-          </cell>
-          <cell r="J5" t="str">
-            <v>0.0030</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>0.0055</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>0.019</v>
-          </cell>
           <cell r="M5" t="str">
             <v/>
           </cell>
@@ -386,13 +386,13 @@
             <v/>
           </cell>
           <cell r="O5" t="str">
-            <v>0.0081</v>
+            <v>0.0088</v>
           </cell>
           <cell r="P5" t="str">
-            <v>-0.00027</v>
+            <v>-0.000083</v>
           </cell>
           <cell r="Q5" t="str">
-            <v>0.0093</v>
+            <v>0.0099</v>
           </cell>
           <cell r="R5" t="str">
             <v/>
@@ -401,15 +401,15 @@
             <v/>
           </cell>
           <cell r="T5" t="str">
-            <v>0.0023</v>
+            <v>0.0034</v>
           </cell>
           <cell r="U5" t="str">
-            <v>0.0051</v>
+            <v>0.0063</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(0.00065)</v>
+            <v>(0.00066)</v>
           </cell>
           <cell r="C6" t="str">
             <v/>
@@ -421,10 +421,10 @@
             <v>(0.0014)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.0014)</v>
+            <v>(0.0013)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.00084)</v>
+            <v>(0.00090)</v>
           </cell>
           <cell r="H6" t="str">
             <v/>
@@ -436,7 +436,7 @@
             <v>(0.0018)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(0.0017)</v>
+            <v>(0.0018)</v>
           </cell>
           <cell r="L6" t="str">
             <v>(0.00067)</v>
@@ -451,10 +451,10 @@
             <v>(0.0015)</v>
           </cell>
           <cell r="P6" t="str">
-            <v>(0.0015)</v>
+            <v>(0.0014)</v>
           </cell>
           <cell r="Q6" t="str">
-            <v>(0.00092)</v>
+            <v>(0.00096)</v>
           </cell>
           <cell r="R6" t="str">
             <v/>
@@ -466,7 +466,7 @@
             <v>(0.0020)</v>
           </cell>
           <cell r="U6" t="str">
-            <v>(0.0019)</v>
+            <v>(0.0020)</v>
           </cell>
         </row>
         <row r="8">
@@ -474,7 +474,7 @@
             <v/>
           </cell>
           <cell r="C8" t="str">
-            <v>0.49</v>
+            <v>0.50</v>
           </cell>
           <cell r="E8" t="str">
             <v/>
@@ -486,7 +486,7 @@
             <v/>
           </cell>
           <cell r="H8" t="str">
-            <v>0.30</v>
+            <v>0.35</v>
           </cell>
           <cell r="J8" t="str">
             <v/>
@@ -498,7 +498,7 @@
             <v/>
           </cell>
           <cell r="M8" t="str">
-            <v>0.42</v>
+            <v>0.43</v>
           </cell>
           <cell r="O8" t="str">
             <v/>
@@ -510,7 +510,7 @@
             <v/>
           </cell>
           <cell r="R8" t="str">
-            <v>0.25</v>
+            <v>0.35</v>
           </cell>
           <cell r="T8" t="str">
             <v/>
@@ -524,32 +524,32 @@
             <v/>
           </cell>
           <cell r="C9" t="str">
+            <v>(0.065)</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v/>
+          </cell>
+          <cell r="F9" t="str">
+            <v/>
+          </cell>
+          <cell r="G9" t="str">
+            <v/>
+          </cell>
+          <cell r="H9" t="str">
+            <v>(0.17)</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v/>
+          </cell>
+          <cell r="K9" t="str">
+            <v/>
+          </cell>
+          <cell r="L9" t="str">
+            <v/>
+          </cell>
+          <cell r="M9" t="str">
             <v>(0.071)</v>
           </cell>
-          <cell r="E9" t="str">
-            <v/>
-          </cell>
-          <cell r="F9" t="str">
-            <v/>
-          </cell>
-          <cell r="G9" t="str">
-            <v/>
-          </cell>
-          <cell r="H9" t="str">
-            <v>(0.18)</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v/>
-          </cell>
-          <cell r="K9" t="str">
-            <v/>
-          </cell>
-          <cell r="L9" t="str">
-            <v/>
-          </cell>
-          <cell r="M9" t="str">
-            <v>(0.076)</v>
-          </cell>
           <cell r="O9" t="str">
             <v/>
           </cell>
@@ -560,7 +560,7 @@
             <v/>
           </cell>
           <cell r="R9" t="str">
-            <v>(0.21)</v>
+            <v>(0.20)</v>
           </cell>
           <cell r="T9" t="str">
             <v/>
@@ -574,7 +574,7 @@
             <v/>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.015</v>
+            <v>-0.019</v>
           </cell>
           <cell r="D11" t="str">
             <v/>
@@ -589,7 +589,7 @@
             <v/>
           </cell>
           <cell r="H11" t="str">
-            <v>-0.51</v>
+            <v>-0.55</v>
           </cell>
           <cell r="I11" t="str">
             <v/>
@@ -604,7 +604,7 @@
             <v/>
           </cell>
           <cell r="M11" t="str">
-            <v>0.016</v>
+            <v>0.0069</v>
           </cell>
           <cell r="N11" t="str">
             <v/>
@@ -619,7 +619,7 @@
             <v/>
           </cell>
           <cell r="R11" t="str">
-            <v>-0.48</v>
+            <v>-0.57</v>
           </cell>
           <cell r="S11" t="str">
             <v/>
@@ -639,38 +639,38 @@
             <v/>
           </cell>
           <cell r="C12" t="str">
+            <v>(0.064)</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v/>
+          </cell>
+          <cell r="E12" t="str">
+            <v/>
+          </cell>
+          <cell r="F12" t="str">
+            <v/>
+          </cell>
+          <cell r="G12" t="str">
+            <v/>
+          </cell>
+          <cell r="H12" t="str">
+            <v>(0.17)</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v/>
+          </cell>
+          <cell r="J12" t="str">
+            <v/>
+          </cell>
+          <cell r="K12" t="str">
+            <v/>
+          </cell>
+          <cell r="L12" t="str">
+            <v/>
+          </cell>
+          <cell r="M12" t="str">
             <v>(0.070)</v>
           </cell>
-          <cell r="D12" t="str">
-            <v/>
-          </cell>
-          <cell r="E12" t="str">
-            <v/>
-          </cell>
-          <cell r="F12" t="str">
-            <v/>
-          </cell>
-          <cell r="G12" t="str">
-            <v/>
-          </cell>
-          <cell r="H12" t="str">
-            <v>(0.18)</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v/>
-          </cell>
-          <cell r="J12" t="str">
-            <v/>
-          </cell>
-          <cell r="K12" t="str">
-            <v/>
-          </cell>
-          <cell r="L12" t="str">
-            <v/>
-          </cell>
-          <cell r="M12" t="str">
-            <v>(0.075)</v>
-          </cell>
           <cell r="N12" t="str">
             <v/>
           </cell>
@@ -684,7 +684,7 @@
             <v/>
           </cell>
           <cell r="R12" t="str">
-            <v>(0.21)</v>
+            <v>(0.20)</v>
           </cell>
           <cell r="S12" t="str">
             <v/>
@@ -698,30 +698,30 @@
         </row>
         <row r="14">
           <cell r="D14" t="str">
-            <v>0.018</v>
+            <v>0.022</v>
           </cell>
           <cell r="I14" t="str">
-            <v>0.56</v>
+            <v>0.60</v>
           </cell>
           <cell r="N14" t="str">
-            <v>-0.014</v>
+            <v>-0.0041</v>
           </cell>
           <cell r="S14" t="str">
-            <v>0.55</v>
+            <v>0.64</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15" t="str">
-            <v>(0.070)</v>
+            <v>(0.064)</v>
           </cell>
           <cell r="I15" t="str">
             <v>(0.17)</v>
           </cell>
           <cell r="N15" t="str">
-            <v>(0.075)</v>
+            <v>(0.070)</v>
           </cell>
           <cell r="S15" t="str">
-            <v>(0.21)</v>
+            <v>(0.20)</v>
           </cell>
         </row>
         <row r="21">
@@ -729,64 +729,64 @@
             <v>R-sq</v>
           </cell>
           <cell r="B21" t="str">
-            <v>0.012</v>
+            <v>0.013</v>
           </cell>
           <cell r="C21" t="str">
-            <v>0.086</v>
+            <v>0.089</v>
           </cell>
           <cell r="D21" t="str">
             <v>0.021</v>
           </cell>
           <cell r="E21" t="str">
-            <v>0.019</v>
+            <v>0.020</v>
           </cell>
           <cell r="F21" t="str">
             <v>0.021</v>
           </cell>
           <cell r="G21" t="str">
-            <v>0.624</v>
+            <v>0.581</v>
           </cell>
           <cell r="H21" t="str">
-            <v>0.612</v>
+            <v>0.564</v>
           </cell>
           <cell r="I21" t="str">
-            <v>0.561</v>
+            <v>0.492</v>
           </cell>
           <cell r="J21" t="str">
-            <v>0.607</v>
+            <v>0.559</v>
           </cell>
           <cell r="K21" t="str">
-            <v>0.561</v>
+            <v>0.492</v>
           </cell>
           <cell r="L21" t="str">
             <v>0.013</v>
           </cell>
           <cell r="M21" t="str">
-            <v>0.078</v>
+            <v>0.080</v>
           </cell>
           <cell r="N21" t="str">
-            <v>0.023</v>
+            <v>0.024</v>
           </cell>
           <cell r="O21" t="str">
             <v>0.022</v>
           </cell>
           <cell r="P21" t="str">
-            <v>0.023</v>
+            <v>0.024</v>
           </cell>
           <cell r="Q21" t="str">
-            <v>0.638</v>
+            <v>0.577</v>
           </cell>
           <cell r="R21" t="str">
-            <v>0.606</v>
+            <v>0.545</v>
           </cell>
           <cell r="S21" t="str">
-            <v>0.564</v>
+            <v>0.483</v>
           </cell>
           <cell r="T21" t="str">
-            <v>0.600</v>
+            <v>0.539</v>
           </cell>
           <cell r="U21" t="str">
-            <v>0.564</v>
+            <v>0.483</v>
           </cell>
         </row>
         <row r="22">
@@ -794,61 +794,61 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="B22" t="str">
+            <v>0.013</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>0.045</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>0.039</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>0.045</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>0.039</v>
+          </cell>
+          <cell r="G22" t="str">
             <v>0.012</v>
           </cell>
-          <cell r="C22" t="str">
-            <v>0.043</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>0.037</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>0.043</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>0.037</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>0.011</v>
-          </cell>
           <cell r="H22" t="str">
-            <v>0.036</v>
+            <v>0.038</v>
           </cell>
           <cell r="I22" t="str">
             <v>0.029</v>
           </cell>
           <cell r="J22" t="str">
-            <v>0.036</v>
+            <v>0.038</v>
           </cell>
           <cell r="K22" t="str">
             <v>0.029</v>
           </cell>
           <cell r="L22" t="str">
-            <v>0.012</v>
+            <v>0.013</v>
           </cell>
           <cell r="M22" t="str">
-            <v>0.041</v>
+            <v>0.043</v>
           </cell>
           <cell r="N22" t="str">
-            <v>0.036</v>
+            <v>0.037</v>
           </cell>
           <cell r="O22" t="str">
-            <v>0.041</v>
+            <v>0.043</v>
           </cell>
           <cell r="P22" t="str">
-            <v>0.036</v>
+            <v>0.037</v>
           </cell>
           <cell r="Q22" t="str">
-            <v>0.0097</v>
+            <v>0.010</v>
           </cell>
           <cell r="R22" t="str">
-            <v>0.033</v>
+            <v>0.035</v>
           </cell>
           <cell r="S22" t="str">
             <v>0.027</v>
           </cell>
           <cell r="T22" t="str">
-            <v>0.033</v>
+            <v>0.035</v>
           </cell>
           <cell r="U22" t="str">
             <v>0.027</v>
@@ -1159,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A21EE-0761-4F87-B9B4-E7F39C241767}">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K34"/>
     </sheetView>
   </sheetViews>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!B5</f>
-        <v>0.020</v>
+        <v>0.021</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C5</f>
@@ -1274,15 +1274,15 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!E5</f>
-        <v>0.0097</v>
+        <v>0.011</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!F5</f>
-        <v>0.00035</v>
+        <v>0.00046</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!G5</f>
-        <v>0.0100</v>
+        <v>0.011</v>
       </c>
       <c r="H5" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H5</f>
@@ -1294,17 +1294,17 @@
       </c>
       <c r="J5" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!J5</f>
-        <v>0.0030</v>
+        <v>0.0038</v>
       </c>
       <c r="K5" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!K5</f>
-        <v>0.0055</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!B6</f>
-        <v>(0.00065)</v>
+        <v>(0.00066)</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C6</f>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!F6</f>
-        <v>(0.0014)</v>
+        <v>(0.0013)</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!G6</f>
-        <v>(0.00084)</v>
+        <v>(0.00090)</v>
       </c>
       <c r="H6" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H6</f>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="K6" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!K6</f>
-        <v>(0.0017)</v>
+        <v>(0.0018)</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C8</f>
-        <v>0.49</v>
+        <v>0.50</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!D14</f>
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!E8</f>
@@ -1373,11 +1373,11 @@
       </c>
       <c r="H7" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H8</f>
-        <v>0.30</v>
+        <v>0.35</v>
       </c>
       <c r="I7" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!I14</f>
-        <v>0.56</v>
+        <v>0.60</v>
       </c>
       <c r="J7" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!J8</f>
@@ -1395,11 +1395,11 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C9</f>
-        <v>(0.071)</v>
+        <v>(0.065)</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!D15</f>
-        <v>(0.070)</v>
+        <v>(0.064)</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!E9</f>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H8" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H9</f>
-        <v>(0.18)</v>
+        <v>(0.17)</v>
       </c>
       <c r="I8" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!I15</f>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C11</f>
-        <v>-0.015</v>
+        <v>-0.019</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!D11</f>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H9" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H11</f>
-        <v>-0.51</v>
+        <v>-0.55</v>
       </c>
       <c r="I9" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!I11</f>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C12</f>
-        <v>(0.070)</v>
+        <v>(0.064)</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!D12</f>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="H10" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H12</f>
-        <v>(0.18)</v>
+        <v>(0.17)</v>
       </c>
       <c r="I10" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!I12</f>
@@ -1563,11 +1563,11 @@
       </c>
       <c r="B12" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!B21</f>
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C21</f>
-        <v>0.086</v>
+        <v>0.089</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!D21</f>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!E21</f>
-        <v>0.019</v>
+        <v>0.020</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!F21</f>
@@ -1583,23 +1583,23 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!G21</f>
-        <v>0.624</v>
+        <v>0.581</v>
       </c>
       <c r="H12" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H21</f>
-        <v>0.612</v>
+        <v>0.564</v>
       </c>
       <c r="I12" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!I21</f>
-        <v>0.561</v>
+        <v>0.492</v>
       </c>
       <c r="J12" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!J21</f>
-        <v>0.607</v>
+        <v>0.559</v>
       </c>
       <c r="K12" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!K21</f>
-        <v>0.561</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1609,31 +1609,31 @@
       </c>
       <c r="B13" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!B22</f>
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!C22</f>
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!D22</f>
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!E22</f>
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!F22</f>
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!G22</f>
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="H13" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!H22</f>
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="I13" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!I22</f>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="J13" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!J22</f>
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="K13" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!K22</f>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!L5</f>
-        <v>0.019</v>
+        <v>0.020</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M5</f>
@@ -1865,15 +1865,15 @@
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!O5</f>
-        <v>0.0081</v>
+        <v>0.0088</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!P5</f>
-        <v>-0.00027</v>
+        <v>-0.000083</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!Q5</f>
-        <v>0.0093</v>
+        <v>0.0099</v>
       </c>
       <c r="H22" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R5</f>
@@ -1885,11 +1885,11 @@
       </c>
       <c r="J22" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!T5</f>
-        <v>0.0023</v>
+        <v>0.0034</v>
       </c>
       <c r="K22" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!U5</f>
-        <v>0.0051</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1911,11 +1911,11 @@
       </c>
       <c r="F23" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!P6</f>
-        <v>(0.0015)</v>
+        <v>(0.0014)</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!Q6</f>
-        <v>(0.00092)</v>
+        <v>(0.00096)</v>
       </c>
       <c r="H23" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R6</f>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="K23" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!U6</f>
-        <v>(0.0019)</v>
+        <v>(0.0020)</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1944,11 +1944,11 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M8</f>
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!N14</f>
-        <v>-0.014</v>
+        <v>-0.0041</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!O8</f>
@@ -1964,11 +1964,11 @@
       </c>
       <c r="H24" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R8</f>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I24" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!S14</f>
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="J24" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!T8</f>
@@ -1986,11 +1986,11 @@
       </c>
       <c r="C25" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M9</f>
-        <v>(0.076)</v>
+        <v>(0.071)</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!N15</f>
-        <v>(0.075)</v>
+        <v>(0.070)</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!O9</f>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="H25" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R9</f>
-        <v>(0.21)</v>
+        <v>(0.20)</v>
       </c>
       <c r="I25" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!S15</f>
-        <v>(0.21)</v>
+        <v>(0.20)</v>
       </c>
       <c r="J25" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!T9</f>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C26" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M11</f>
-        <v>0.016</v>
+        <v>0.0069</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!N11</f>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H26" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R11</f>
-        <v>-0.48</v>
+        <v>-0.57</v>
       </c>
       <c r="I26" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!S11</f>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C27" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M12</f>
-        <v>(0.075)</v>
+        <v>(0.070)</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!N12</f>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="H27" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R12</f>
-        <v>(0.21)</v>
+        <v>(0.20)</v>
       </c>
       <c r="I27" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!S12</f>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="C29" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M21</f>
-        <v>0.078</v>
+        <v>0.080</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!N21</f>
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="E29" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!O21</f>
@@ -2165,27 +2165,27 @@
       </c>
       <c r="F29" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!P21</f>
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="G29" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!Q21</f>
-        <v>0.638</v>
+        <v>0.577</v>
       </c>
       <c r="H29" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R21</f>
-        <v>0.606</v>
+        <v>0.545</v>
       </c>
       <c r="I29" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!S21</f>
-        <v>0.564</v>
+        <v>0.483</v>
       </c>
       <c r="J29" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!T21</f>
-        <v>0.600</v>
+        <v>0.539</v>
       </c>
       <c r="K29" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!U21</f>
-        <v>0.564</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="B30" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!L22</f>
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="C30" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!M22</f>
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="D30" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!N22</f>
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="E30" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!O22</f>
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!P22</f>
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="G30" s="4" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!Q22</f>
-        <v>0.0097</v>
+        <v>0.010</v>
       </c>
       <c r="H30" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!R22</f>
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="I30" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!S22</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="J30" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!T22</f>
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="K30" s="16" t="str">
         <f>[1]iv_reg_demand_pf_notchoosing!U22</f>
@@ -2354,18 +2354,18 @@
     <row r="35" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/iv_reg_demand_pf_notchoosing.xlsx
+++ b/Tables/iv_reg_demand_pf_notchoosing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27B3CFB-59C0-4AE3-85A1-C19F5C5FD65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93775AA-71AE-415A-B237-686096EEEC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8820" windowWidth="29040" windowHeight="15720" xr2:uid="{8D8B75BE-A319-44D9-B827-2C4CDF107419}"/>
+    <workbookView xWindow="-25290" yWindow="-6210" windowWidth="16710" windowHeight="11745" xr2:uid="{8D8B75BE-A319-44D9-B827-2C4CDF107419}"/>
   </bookViews>
   <sheets>
     <sheet name="iv_reg_demand_pf_notchoosing" sheetId="1" r:id="rId1"/>
@@ -2354,18 +2354,18 @@
     <row r="35" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
